--- a/biology/Histoire de la zoologie et de la botanique/Franz_Steindachner/Franz_Steindachner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Steindachner/Franz_Steindachner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Steindachner est un zoologiste autrichien, né le 11 novembre 1834 à Vienne et mort le 10 décembre 1919 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de médecin, il commence des études de droit à l’université de Vienne. Il est passionné par l’histoire naturelle et l’un de ses professeurs, le géologue Eduard Suess (1831-1914), l’initie à l’étude des poissons fossiles ce qui l’oriente définitivement vers l’ichtyologie.
 Steindachner commence à travailler pour le Muséum d’histoire naturelle de Vienne (alors Kaiserlich-Königliches Zoologisches Hof-Cabinet) en 1860, sur les poissons. Il est invité, aux côtés de Giovanni Canestrini (1835-1900), par le professeur Rudolf Kner (1810-1869), à étudier les poissons rapportés par le voyage de circumnavigation de la frégate Novara en 1857-1859. Il rencontre alors l’ornithologue August von Pelzeln (1825-1891) qui est chargé des collections ornithologiques et ichtyologiques après la mort de Johann Jacob Heckel (1790-1857). En 1860, Steindachner reçoit la charge des poissons sans avoir de poste mais en étant cependant rémunéré. En 1861, le départ à la retraite de Leopold Fitzinger (1802-1884) lui permet de prendre le poste de conservateur des poissons, des reptiles et des amphibiens. Cette même année, il se rend en Dalmatie pour récolter des poissons.
@@ -550,7 +564,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
 1876 : Ichthyologische Beiträge (V). [Subtitles i–v.]. Sitzungsber. Akad. Wiss. Wien, v. 74 (1. Abth.) : 49–240, Pl. 1–15.
